--- a/OPENME/API.xlsx
+++ b/OPENME/API.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\ITECH\Block 1\ScooTeq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\source\repos\scooteq_rest\OPENME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479071FE-C3F9-4F43-AA19-B623ABADE7D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40E6AE-68D2-46CC-9564-C564CE87F88D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13492" xr2:uid="{D34286BD-E034-4BCE-93C0-20E7C92291D1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Entity</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>/[id]</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/{id}</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -468,6 +474,9 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
@@ -485,6 +494,9 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
@@ -502,6 +514,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
@@ -519,6 +534,9 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -530,6 +548,9 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -541,6 +562,9 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -552,6 +576,9 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -562,6 +589,9 @@
       </c>
       <c r="C8" t="s">
         <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/OPENME/API.xlsx
+++ b/OPENME/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\source\repos\scooteq_rest\OPENME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40E6AE-68D2-46CC-9564-C564CE87F88D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C66FE-D89E-46B8-A39F-2B00291257FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13492" xr2:uid="{D34286BD-E034-4BCE-93C0-20E7C92291D1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Entity</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>/{id}</t>
+  </si>
+  <si>
+    <t>/api/country</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/api/scooterlocation</t>
+  </si>
+  <si>
+    <t>/api/pricegroup</t>
   </si>
 </sst>
 </file>
@@ -451,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B541D9-CD80-48CC-A050-6200546AE37B}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -594,6 +606,30 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/OPENME/API.xlsx
+++ b/OPENME/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\source\repos\scooteq_rest\OPENME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C66FE-D89E-46B8-A39F-2B00291257FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAD9E66-F71C-40E4-BCF3-F2E9A6D3CFB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13492" xr2:uid="{D34286BD-E034-4BCE-93C0-20E7C92291D1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Entity</t>
   </si>
@@ -96,13 +96,19 @@
     <t>/api/country</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>/api/scooterlocation</t>
   </si>
   <si>
     <t>/api/pricegroup</t>
+  </si>
+  <si>
+    <t>[?params]</t>
+  </si>
+  <si>
+    <t>{?params}</t>
+  </si>
+  <si>
+    <t>You should see the postman documentation for full details</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B541D9-CD80-48CC-A050-6200546AE37B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -611,23 +617,46 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
